--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_10.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1029199.939626545</v>
+        <v>-1031839.286944568</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>202.5825996103432</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>208.0293960089174</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.42977678915829</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>84.2322232716719</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>125.2942148585658</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>144.8586974472232</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>382.0953130365737</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>207.1542595306375</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>107.4022143159845</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>75.81724280776308</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>142.5708055487652</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>276.3277971504348</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>159.5795902124535</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>78.83384846861696</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1382,10 +1382,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187843</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>125.2851635391967</v>
+        <v>39.83255574578868</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892502</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,13 +1616,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1771,19 +1771,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>26.05480806223499</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>147.3642529779093</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1907,10 +1907,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784705</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560509</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2020,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>180.1003471321689</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2065,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>159.4039304881686</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.930370072263</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>141.2342243404114</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>21.63824106824953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,7 +2479,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>11.56087338713452</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2716,13 +2716,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,13 +2767,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>221.4418477627501</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>174.8916146167352</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545289</v>
       </c>
       <c r="F34" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652613</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3241,7 +3241,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545288</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
         <v>124.3308255261727</v>
@@ -4144,16 +4144,16 @@
         <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>909.6965460670935</v>
+        <v>696.713655711837</v>
       </c>
       <c r="C2" t="n">
-        <v>540.7340291266819</v>
+        <v>327.7511387714252</v>
       </c>
       <c r="D2" t="n">
-        <v>540.7340291266819</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="E2" t="n">
-        <v>154.9457765284376</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="F2" t="n">
-        <v>136.3298403777727</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1669.762144392295</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="X2" t="n">
-        <v>1296.296386131215</v>
+        <v>1291.481876182945</v>
       </c>
       <c r="Y2" t="n">
-        <v>1296.296386131215</v>
+        <v>901.3425442071332</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4389,46 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143497</v>
+        <v>483.0441129489463</v>
       </c>
       <c r="L3" t="n">
-        <v>884.9085321458215</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105042</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701987</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878149</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710446</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>177.8065995564534</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4516,22 +4516,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1124.349301773071</v>
       </c>
       <c r="V4" t="n">
-        <v>1490.124203461141</v>
+        <v>869.6648135671838</v>
       </c>
       <c r="W4" t="n">
-        <v>1490.124203461141</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>580.2476435302233</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>359.4550643866932</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>848.1875530107154</v>
+        <v>824.6074030911695</v>
       </c>
       <c r="C5" t="n">
-        <v>848.1875530107154</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="D5" t="n">
-        <v>848.1875530107154</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E5" t="n">
-        <v>848.1875530107154</v>
+        <v>69.85663355251367</v>
       </c>
       <c r="F5" t="n">
-        <v>437.2016482211079</v>
+        <v>62.9111328033102</v>
       </c>
       <c r="G5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362824</v>
       </c>
       <c r="K5" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872906</v>
+        <v>795.7553530872921</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400154</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664334</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320763</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.926725050649</v>
+        <v>1974.812333392183</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.926725050649</v>
+        <v>1601.346575131103</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074837</v>
+        <v>1211.207243155291</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542615</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148806</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.144689175691</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182532</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812058019</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800431</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500126</v>
       </c>
       <c r="K6" t="n">
-        <v>560.139411173514</v>
+        <v>298.3188265310626</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049855</v>
+        <v>593.0223835625343</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164205</v>
+        <v>956.2844025217544</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.39011576115</v>
+        <v>1590.463386300793</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937312</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>603.8705643698324</v>
+        <v>942.4020044020325</v>
       </c>
       <c r="C7" t="n">
-        <v>603.8705643698324</v>
+        <v>773.4658214741256</v>
       </c>
       <c r="D7" t="n">
-        <v>453.7539249574967</v>
+        <v>623.3491820617899</v>
       </c>
       <c r="E7" t="n">
-        <v>305.8408313751036</v>
+        <v>514.8620968941287</v>
       </c>
       <c r="F7" t="n">
-        <v>305.8408313751036</v>
+        <v>367.9721493962184</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386097</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312193</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.884232784815</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="V7" t="n">
-        <v>1234.30115924162</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="W7" t="n">
-        <v>1234.30115924162</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="X7" t="n">
-        <v>1006.311608343602</v>
+        <v>1124.050469232272</v>
       </c>
       <c r="Y7" t="n">
-        <v>785.5190292000722</v>
+        <v>1124.050469232272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038043</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1486.072305357837</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1100.284052759592</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4838,16 +4838,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102165</v>
+        <v>2230.937844028709</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>627.8744564335971</v>
+        <v>826.5851666348717</v>
       </c>
       <c r="C10" t="n">
-        <v>627.8744564335971</v>
+        <v>657.6489837069648</v>
       </c>
       <c r="D10" t="n">
-        <v>477.7578170212613</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1574.417158650215</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U10" t="n">
-        <v>1574.417158650215</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V10" t="n">
-        <v>1319.732670444328</v>
+        <v>1336.794915815362</v>
       </c>
       <c r="W10" t="n">
-        <v>1030.315500407367</v>
+        <v>1047.377745778402</v>
       </c>
       <c r="X10" t="n">
-        <v>1030.315500407367</v>
+        <v>1047.377745778402</v>
       </c>
       <c r="Y10" t="n">
-        <v>809.5229212638368</v>
+        <v>826.5851666348717</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406466</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168588</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797183</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637303</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>789.7592298206043</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C13" t="n">
-        <v>620.8230468926974</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D13" t="n">
-        <v>470.7064074803617</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>322.7933138979686</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2253.366709591049</v>
+        <v>2156.827640693841</v>
       </c>
       <c r="U13" t="n">
-        <v>1964.291482935247</v>
+        <v>1867.752414038033</v>
       </c>
       <c r="V13" t="n">
-        <v>1709.60699472936</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W13" t="n">
-        <v>1420.189824692399</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X13" t="n">
-        <v>1192.200273794374</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.4076946508441</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,58 +5264,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192582</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756264</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>245.230692780394</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>842.6091804069463</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143763</v>
+        <v>1470.207143961553</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2022.116874200841</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876679</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>411.963121559761</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>261.8464821474253</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>261.8464821474253</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>261.8464821474253</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>261.8464821474253</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H16" t="n">
-        <v>120.1346509896233</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602303</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396416</v>
+        <v>1722.776592304623</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359455</v>
+        <v>1433.359422267662</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614378</v>
+        <v>1205.369871369645</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179076</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797183</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>577.388077746847</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589157</v>
+        <v>1176.533952578167</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143764</v>
+        <v>1804.131916132774</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.997837274916</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1050.315828159287</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C22" t="n">
-        <v>580.8993044876688</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D22" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>115.6734722078199</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
@@ -6005,31 +6005,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.07903472198</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2253.988764961267</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6203,28 +6203,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075798</v>
@@ -6242,31 +6242,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>868.6673633290468</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F28" t="n">
         <v>402.7245934908938</v>
@@ -6376,10 +6376,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6406,28 +6406,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1271.108407302816</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>1050.315828159286</v>
       </c>
     </row>
     <row r="29">
@@ -6440,13 +6440,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6464,13 +6464,13 @@
         <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
@@ -6540,28 +6540,28 @@
         <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273906</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O30" t="n">
-        <v>1872.470231673185</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2529.355041543136</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797189</v>
@@ -6643,28 +6643,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="32">
@@ -6686,43 +6686,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
         <v>4606.285157492578</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,31 +6771,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G34" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,13 +6892,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6932,25 +6932,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -6962,7 +6962,7 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.793114229131</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468418</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963486</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7093,7 +7093,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7129,13 +7129,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7169,31 +7169,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.793114229131</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468418</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963486</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580115</v>
@@ -7324,16 +7324,16 @@
         <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7348,7 +7348,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7366,13 +7366,13 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7546,19 +7546,19 @@
         <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
@@ -7567,13 +7567,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797183</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7713,40 +7713,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797183</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>562.8579153358621</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656817</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380727</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
         <v>898.2659412311323</v>
@@ -7819,34 +7819,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780643</v>
+        <v>60.50016306149519</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621884</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>249.3877325071651</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>280.1079373569278</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515152</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154992</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-4.54747350886464e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>180.1512420531373</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>327.3154795012821</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>20.12683316436541</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>92.12028678809159</v>
+        <v>177.5728945814996</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>55.21102825633056</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>71.22040037418824</v>
       </c>
     </row>
     <row r="17">
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0.9259388694757149</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23953,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>66.30572490086857</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>38.59775584152592</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,7 +24367,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>205.8445769401537</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,13 +24604,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>65.08115057384089</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>77.24602870709285</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.836930773104541e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>6.963318810448982e-13</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1219259.115045181</v>
+        <v>1219259.115045182</v>
       </c>
     </row>
     <row r="6">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169252.1408943218</v>
+        <v>169252.1408943219</v>
       </c>
       <c r="C2" t="n">
-        <v>205260.4424660708</v>
+        <v>205260.4424660709</v>
       </c>
       <c r="D2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>201786.6499225015</v>
+      </c>
+      <c r="F2" t="n">
         <v>201786.6499225014</v>
-      </c>
-      <c r="F2" t="n">
-        <v>201786.6499225015</v>
       </c>
       <c r="G2" t="n">
         <v>201786.6499225016</v>
       </c>
       <c r="H2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="I2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="J2" t="n">
-        <v>201786.6499225016</v>
+        <v>201786.6499225015</v>
       </c>
       <c r="K2" t="n">
         <v>201786.6499225015</v>
       </c>
       <c r="L2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="M2" t="n">
-        <v>205260.4424660712</v>
+        <v>205260.4424660711</v>
       </c>
       <c r="N2" t="n">
         <v>205260.4424660708</v>
       </c>
       <c r="O2" t="n">
+        <v>205260.4424660708</v>
+      </c>
+      <c r="P2" t="n">
         <v>205260.4424660709</v>
-      </c>
-      <c r="P2" t="n">
-        <v>205260.4424660708</v>
       </c>
     </row>
     <row r="3">
@@ -26369,34 +26369,34 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403381</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073547</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.694760941172718e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.22694927995326e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099823</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3.575581720870941e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>67721.68800182256</v>
+        <v>67721.68800182236</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>54516.86175496511</v>
+        <v>54516.86175496507</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921024</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810789</v>
+        <v>88524.23512810786</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756508</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756712</v>
+        <v>9337.200356756512</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756537</v>
       </c>
       <c r="I4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="J4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.200356756533</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756564</v>
+        <v>9337.20035675655</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985001</v>
+        <v>17328.05961985004</v>
       </c>
       <c r="M4" t="n">
         <v>17328.05961985</v>
       </c>
       <c r="N4" t="n">
+        <v>17328.05961985006</v>
+      </c>
+      <c r="O4" t="n">
         <v>17328.05961985005</v>
       </c>
-      <c r="O4" t="n">
-        <v>17328.05961985006</v>
-      </c>
       <c r="P4" t="n">
-        <v>17328.05961985005</v>
+        <v>17328.05961985004</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26479,16 +26479,16 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1092954.276876408</v>
+        <v>-1093314.359892125</v>
       </c>
       <c r="C6" t="n">
-        <v>-24403.60366587613</v>
+        <v>-24403.60366587629</v>
       </c>
       <c r="D6" t="n">
-        <v>-183824.8736637685</v>
+        <v>-183824.873663768</v>
       </c>
       <c r="E6" t="n">
-        <v>-234085.5420655169</v>
+        <v>-234120.279990953</v>
       </c>
       <c r="F6" t="n">
-        <v>91326.91974183786</v>
+        <v>91292.18181640141</v>
       </c>
       <c r="G6" t="n">
-        <v>91326.91974183763</v>
+        <v>91292.18181640237</v>
       </c>
       <c r="H6" t="n">
-        <v>91326.91974183773</v>
+        <v>91292.18181640214</v>
       </c>
       <c r="I6" t="n">
-        <v>91326.91974183785</v>
+        <v>91292.18181640205</v>
       </c>
       <c r="J6" t="n">
-        <v>-76278.25806814485</v>
+        <v>-76312.9959935801</v>
       </c>
       <c r="K6" t="n">
-        <v>91326.91974183777</v>
+        <v>91292.18181640214</v>
       </c>
       <c r="L6" t="n">
-        <v>17046.57899048323</v>
+        <v>17046.57899048325</v>
       </c>
       <c r="M6" t="n">
-        <v>-286.7609432059398</v>
+        <v>-286.7609432061436</v>
       </c>
       <c r="N6" t="n">
-        <v>84768.26699230535</v>
+        <v>84768.26699230532</v>
       </c>
       <c r="O6" t="n">
-        <v>84768.26699230541</v>
+        <v>84768.26699230555</v>
       </c>
       <c r="P6" t="n">
-        <v>84768.26699230538</v>
+        <v>84768.26699230549</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.064892117539</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,37 +26787,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099649</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757593</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>278.198799748375</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,40 +27009,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4.469477151088676e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,25 +27255,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022541</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27382,19 +27382,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>146.6536456117655</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>388.4462689525532</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>107.2789458766048</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>29.45238973638027</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247052</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>142.0867091867755</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>39.03174833058466</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27831,16 +27831,16 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>176.3204005160649</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>222.7020862222423</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>130.5482485912766</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27910,10 +27910,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>59.96935906371573</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>173.303794855211</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.330580173293129e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28302,7 +28302,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>-6.107808695591741e-12</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>-7.729757574755542e-12</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28336,7 +28336,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28387,10 +28387,10 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-5.229288266773751e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>-2.759534424722554e-12</v>
       </c>
     </row>
     <row r="17">
@@ -28627,10 +28627,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>-3.026125049089067e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.701199264265597e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336177</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342222</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745095</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040587</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.538811676207</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405673</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378624</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31449,16 +31449,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227907</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759584</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.19689343106956</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31829,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437241</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565776</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>397.6543049213388</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565771</v>
+        <v>198.5607970756941</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>171.5999003578885</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>200.450026328093</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,25 +33023,25 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33260,10 +33260,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
         <v>138.5543797798742</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214699</v>
@@ -33284,7 +33284,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>169.6252075171348</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742439</v>
@@ -33433,7 +33433,7 @@
         <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460016</v>
       </c>
       <c r="P32" t="n">
         <v>790.8204499236508</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33512,13 +33512,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>225.4828684302374</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33731,19 +33731,19 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>627.2230337139549</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071786</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742439</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33916,7 +33916,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
@@ -33968,22 +33968,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>403.852496713802</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>661.8411144019728</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>326.7634969305193</v>
+        <v>458.677017313216</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215491</v>
+        <v>247.08765930498</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
@@ -34796,10 +34796,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407336</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376313</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939898</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091737</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560633</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928738</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961229</v>
+        <v>615.5326193530509</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870591</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243157</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992796</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121332</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>263.6798975070086</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121327</v>
+        <v>55.96455263124963</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>29.46586643587019</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>66.4756189137628</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071396</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>23.94570355317081</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37081,7 +37081,7 @@
         <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243148</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683813</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37160,13 +37160,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>82.88662398579301</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37233,19 +37233,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.6686539340807</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238454</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37470,19 +37470,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37564,7 +37564,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37707,19 +37707,19 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>519.7070804799545</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315843</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>188.9220579561603</v>
+        <v>320.835578338857</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
